--- a/mysql_test_results/data/mysql_test_results.xlsx
+++ b/mysql_test_results/data/mysql_test_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgedinicola/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgedinicola/Desktop/comse6156-experiment/mysql_test_results/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A34A879-5D80-A145-9140-432DBBD8A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4DCA44-4809-9E4A-AB50-81EDE590525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{65DDEABA-EA02-B64E-BCDD-98F32F99525A}"/>
+    <workbookView xWindow="9940" yWindow="1080" windowWidth="24580" windowHeight="19340" xr2:uid="{65DDEABA-EA02-B64E-BCDD-98F32F99525A}"/>
   </bookViews>
   <sheets>
     <sheet name="mysql_results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Seconds</t>
   </si>
@@ -69,18 +69,6 @@
   <si>
     <t>SELECT where</t>
   </si>
-  <si>
-    <t>SELECT/INNER JOIN</t>
-  </si>
-  <si>
-    <t>SELECT/LEFT JOIN</t>
-  </si>
-  <si>
-    <t>1000 to 1000 rows</t>
-  </si>
-  <si>
-    <t>1000 to 500 rows</t>
-  </si>
 </sst>
 </file>
 
@@ -103,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +450,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,12 +472,6 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
@@ -495,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -509,2953 +498,2343 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <f>AVERAGE(D4:D103)</f>
-        <v>0.18971000000000005</v>
-      </c>
-      <c r="E3" s="1">
+        <v>2.6899999999999973E-2</v>
+      </c>
+      <c r="E3" s="5">
         <f>AVERAGE(E4:E103)</f>
-        <v>0.17797999999999994</v>
-      </c>
-      <c r="F3" s="1">
+        <v>1.794999999999999E-2</v>
+      </c>
+      <c r="F3" s="5">
         <f>AVERAGE(F4:F103)</f>
-        <v>0.17011000000000007</v>
-      </c>
-      <c r="G3" s="1">
+        <v>1.2889999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
         <f>AVERAGE(G4:G103)</f>
-        <v>0.17105000000000004</v>
-      </c>
-      <c r="H3" s="1">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="H3" s="5">
         <f>AVERAGE(H4:H103)</f>
-        <v>0.16964999999999997</v>
-      </c>
-      <c r="I3" s="1">
+        <v>1.2279999999999998E-2</v>
+      </c>
+      <c r="I3" s="5">
         <f>AVERAGE(I4:I103)</f>
-        <v>0.24179000000000006</v>
-      </c>
-      <c r="J3" s="1">
+        <v>3.9029999999999981E-2</v>
+      </c>
+      <c r="J3" s="5">
         <f>AVERAGE(J4:J103)</f>
-        <v>0.16822999999999999</v>
-      </c>
-      <c r="K3" s="1">
-        <f>AVERAGE(K4:K103)</f>
-        <v>0.46531999999999996</v>
-      </c>
-      <c r="L3" s="1">
-        <f>AVERAGE(L4:L103)</f>
-        <v>0.20813999999999999</v>
-      </c>
+        <v>9.5900000000000065E-3</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4">
-        <v>0.183</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
-        <v>0.16700000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G4">
-        <v>0.161</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I4">
-        <v>0.254</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J4">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="L4">
-        <v>0.188</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D5">
-        <v>0.189</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.16800000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F5">
-        <v>0.17399999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>0.17699999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>0.29099999999999998</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.20200000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D6">
-        <v>0.191</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>0.18</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>0.17</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>0.17399999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H6">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I6">
-        <v>0.23</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J6">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K6">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L6">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D7">
-        <v>0.19600000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E7">
-        <v>0.182</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F7">
-        <v>0.17399999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G7">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H7">
-        <v>0.17799999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>0.23899999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J7">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="K7">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.20899999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8">
-        <v>0.185</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E8">
-        <v>0.19</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F8">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G8">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H8">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I8">
-        <v>0.23100000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J8">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.20699999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D9">
-        <v>0.183</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E9">
-        <v>0.18099999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>0.16800000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G9">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.16500000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I9">
-        <v>0.23400000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L9">
-        <v>0.21099999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10">
-        <v>0.191</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E10">
-        <v>0.17799999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F10">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G10">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H10">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I10">
-        <v>0.24</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J10">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K10">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L10">
-        <v>0.20799999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11">
-        <v>0.192</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0.17599999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>0.182</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G11">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H11">
-        <v>0.17</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I11">
-        <v>0.247</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J11">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.20799999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="E12">
-        <v>0.17699999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>0.16400000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G12">
-        <v>0.17899999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H12">
-        <v>0.18099999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I12">
-        <v>0.23200000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J12">
-        <v>0.157</v>
-      </c>
-      <c r="K12">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L12">
-        <v>0.21099999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13">
-        <v>0.183</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E13">
-        <v>0.19400000000000001</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F13">
-        <v>0.185</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G13">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H13">
-        <v>0.16300000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I13">
-        <v>0.24</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J13">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K13">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0.20499999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14">
-        <v>0.19500000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>0.17299999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0.16500000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G14">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H14">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I14">
-        <v>0.23799999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J14">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="L14">
-        <v>0.21099999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15">
-        <v>0.187</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>0.16800000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F15">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G15">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H15">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I15">
-        <v>0.23599999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J15">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L15">
-        <v>0.216</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16">
-        <v>0.18099999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E16">
-        <v>0.17499999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>0.189</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G16">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>0.187</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I16">
-        <v>0.249</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J16">
-        <v>0.16</v>
-      </c>
-      <c r="K16">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L16">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17">
-        <v>0.192</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E17">
-        <v>0.17399999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F17">
-        <v>0.16400000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G17">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H17">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I17">
-        <v>0.23699999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J17">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L17">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18">
-        <v>0.186</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E18">
-        <v>0.183</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F18">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G18">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H18">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I18">
-        <v>0.23799999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J18">
-        <v>0.159</v>
-      </c>
-      <c r="K18">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L18">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19">
-        <v>0.192</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E19">
-        <v>0.18</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F19">
-        <v>0.17199999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G19">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I19">
-        <v>0.24</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J19">
-        <v>0.156</v>
-      </c>
-      <c r="K19">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L19">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20">
-        <v>0.186</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E20">
-        <v>0.191</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F20">
-        <v>0.16200000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G20">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H20">
-        <v>0.16200000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I20">
-        <v>0.24299999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J20">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K20">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="L20">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21">
-        <v>0.191</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E21">
-        <v>0.17899999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F21">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G21">
-        <v>0.184</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H21">
-        <v>0.16600000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I21">
-        <v>0.23300000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J21">
-        <v>0.18</v>
-      </c>
-      <c r="K21">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L21">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22">
-        <v>0.20200000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>0.17199999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G22">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H22">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I22">
-        <v>0.254</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J22">
-        <v>0.186</v>
-      </c>
-      <c r="K22">
-        <v>0.49</v>
-      </c>
-      <c r="L22">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23">
-        <v>0.186</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E23">
-        <v>0.18099999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F23">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G23">
-        <v>0.17899999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H23">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I23">
-        <v>0.255</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J23">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K23">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="L23">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24">
-        <v>0.193</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>0.192</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>0.17899999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G24">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I24">
-        <v>0.245</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J24">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K24">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L24">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25">
-        <v>0.19</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E25">
-        <v>0.17199999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F25">
-        <v>0.17</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G25">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H25">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I25">
-        <v>0.247</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J25">
-        <v>0.161</v>
-      </c>
-      <c r="K25">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="L25">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26">
-        <v>0.185</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E26">
-        <v>0.17899999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F26">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G26">
-        <v>0.16200000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H26">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I26">
-        <v>0.25</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J26">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="K26">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L26">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27">
-        <v>0.192</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>0.17799999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>0.16900000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G27">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H27">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I27">
-        <v>0.23</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J27">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K27">
-        <v>0.46</v>
-      </c>
-      <c r="L27">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28">
-        <v>0.19800000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E28">
-        <v>0.17899999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F28">
-        <v>0.16300000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G28">
-        <v>0.17899999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H28">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I28">
-        <v>0.23799999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J28">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K28">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L28">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29">
-        <v>0.19400000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E29">
-        <v>0.17899999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F29">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G29">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H29">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I29">
-        <v>0.26100000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J29">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K29">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30">
-        <v>0.19700000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E30">
-        <v>0.16800000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G30">
-        <v>0.17</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H30">
-        <v>0.17</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I30">
-        <v>0.24199999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J30">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K30">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="L30">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31">
-        <v>0.20399999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E31">
-        <v>0.18</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F31">
-        <v>0.16500000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G31">
-        <v>0.182</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H31">
-        <v>0.16600000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I31">
-        <v>0.27800000000000002</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J31">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K31">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L31">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32">
-        <v>0.183</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E32">
-        <v>0.16900000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F32">
-        <v>0.17100000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G32">
-        <v>0.16500000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H32">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I32">
-        <v>0.24199999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J32">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K32">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="L32">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33">
-        <v>0.188</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>0.17100000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F33">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G33">
-        <v>0.18</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H33">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I33">
-        <v>0.23799999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J33">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K33">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="L33">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34">
-        <v>0.184</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E34">
-        <v>0.17599999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F34">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G34">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H34">
-        <v>0.17899999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I34">
-        <v>0.23599999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J34">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K34">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="L34">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35">
-        <v>0.187</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E35">
-        <v>0.18</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F35">
-        <v>0.187</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G35">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H35">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I35">
-        <v>0.22700000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J35">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K35">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L35">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36">
-        <v>0.192</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>0.16800000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F36">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G36">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H36">
-        <v>0.18</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I36">
-        <v>0.246</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J36">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K36">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L36">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37">
-        <v>0.188</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>0.17699999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F37">
-        <v>0.17</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G37">
-        <v>0.17699999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H37">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I37">
-        <v>0.23599999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J37">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K37">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L37">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38">
-        <v>0.188</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>0.17</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F38">
-        <v>0.17299999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G38">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>0.17399999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I38">
-        <v>0.23799999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J38">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K38">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L38">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39">
-        <v>0.184</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E39">
-        <v>0.17100000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G39">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H39">
-        <v>0.17599999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I39">
-        <v>0.22700000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="J39">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K39">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L39">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40">
-        <v>0.184</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E40">
-        <v>0.19700000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F40">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G40">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H40">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I40">
-        <v>0.24199999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J40">
-        <v>0.16</v>
-      </c>
-      <c r="K40">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="L40">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41">
-        <v>0.2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E41">
-        <v>0.17100000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F41">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G41">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H41">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I41">
-        <v>0.26</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J41">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K41">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="L41">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42">
-        <v>0.19700000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E42">
-        <v>0.17899999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F42">
-        <v>0.17100000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G42">
-        <v>0.189</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H42">
-        <v>0.16300000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I42">
-        <v>0.23100000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J42">
-        <v>0.18</v>
-      </c>
-      <c r="K42">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="L42">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43">
-        <v>0.186</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E43">
-        <v>0.17499999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F43">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G43">
-        <v>0.17699999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H43">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I43">
-        <v>0.24399999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J43">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K43">
-        <v>0.46</v>
-      </c>
-      <c r="L43">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44">
-        <v>0.19</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E44">
-        <v>0.17199999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F44">
-        <v>0.16500000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G44">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H44">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I44">
-        <v>0.23200000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J44">
-        <v>0.159</v>
-      </c>
-      <c r="K44">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L44">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45">
-        <v>0.182</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E45">
-        <v>0.18099999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F45">
-        <v>0.16</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G45">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H45">
-        <v>0.16900000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I45">
-        <v>0.24099999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J45">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K45">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="L45">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46">
-        <v>0.187</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E46">
-        <v>0.183</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F46">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G46">
-        <v>0.17699999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H46">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I46">
-        <v>0.24</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J46">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K46">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="L46">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47">
-        <v>0.189</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E47">
-        <v>0.17199999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F47">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G47">
-        <v>0.16300000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I47">
-        <v>0.25</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J47">
-        <v>0.159</v>
-      </c>
-      <c r="K47">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L47">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48">
-        <v>0.193</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E48">
-        <v>0.17</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F48">
-        <v>0.17799999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G48">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H48">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I48">
-        <v>0.23300000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J48">
-        <v>0.17</v>
-      </c>
-      <c r="K48">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="L48">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49">
-        <v>0.183</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E49">
-        <v>0.17599999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F49">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G49">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H49">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I49">
-        <v>0.24299999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J49">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K49">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="L49">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50">
-        <v>0.20300000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50">
-        <v>0.17699999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F50">
-        <v>0.16600000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G50">
-        <v>0.17799999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H50">
-        <v>0.17899999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I50">
-        <v>0.245</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J50">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K50">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L50">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51">
-        <v>0.193</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E51">
-        <v>0.18099999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F51">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G51">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H51">
-        <v>0.16600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I51">
-        <v>0.23899999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J51">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K51">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L51">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52">
-        <v>0.19700000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E52">
-        <v>0.17199999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F52">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G52">
-        <v>0.16600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H52">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I52">
-        <v>0.24</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J52">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K52">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="L52">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53">
-        <v>0.187</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E53">
-        <v>0.18099999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F53">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G53">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H53">
-        <v>0.16600000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I53">
-        <v>0.249</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J53">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K53">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L53">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54">
-        <v>0.18099999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E54">
-        <v>0.17499999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F54">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G54">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H54">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I54">
-        <v>0.23899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="J54">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K54">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="L54">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="E55">
-        <v>0.16800000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F55">
-        <v>0.16600000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G55">
-        <v>0.17299999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H55">
-        <v>0.17399999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I55">
-        <v>0.23499999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J55">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="K55">
-        <v>0.46</v>
-      </c>
-      <c r="L55">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56">
-        <v>0.192</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E56">
-        <v>0.182</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F56">
-        <v>0.16400000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G56">
-        <v>0.16500000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H56">
-        <v>0.188</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I56">
-        <v>0.23699999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J56">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K56">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L56">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57">
-        <v>0.19500000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E57">
-        <v>0.17899999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F57">
-        <v>0.187</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G57">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H57">
-        <v>0.16600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I57">
-        <v>0.23699999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J57">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K57">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L57">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58">
-        <v>0.19900000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E58">
-        <v>0.17100000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F58">
-        <v>0.16900000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G58">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H58">
-        <v>0.16700000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I58">
-        <v>0.24199999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J58">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K58">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L58">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59">
-        <v>0.19</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E59">
-        <v>0.17499999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F59">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G59">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H59">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I59">
-        <v>0.27400000000000002</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J59">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K59">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="L59">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60">
-        <v>0.185</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E60">
-        <v>0.19600000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F60">
-        <v>0.18099999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G60">
-        <v>0.16400000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H60">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I60">
-        <v>0.26600000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J60">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="K60">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="L60">
-        <v>0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61">
-        <v>0.20100000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E61">
-        <v>0.18</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F61">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G61">
-        <v>0.17799999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H61">
-        <v>0.17799999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I61">
-        <v>0.23799999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J61">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K61">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="L61">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62">
-        <v>0.191</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E62">
-        <v>0.17399999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F62">
-        <v>0.17</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G62">
-        <v>0.192</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H62">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I62">
-        <v>0.23499999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J62">
-        <v>0.189</v>
-      </c>
-      <c r="K62">
-        <v>0.46</v>
-      </c>
-      <c r="L62">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63">
-        <v>0.183</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E63">
-        <v>0.191</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F63">
-        <v>0.16800000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G63">
-        <v>0.161</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H63">
-        <v>0.16300000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I63">
-        <v>0.255</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J63">
-        <v>0.161</v>
-      </c>
-      <c r="K63">
-        <v>0.47</v>
-      </c>
-      <c r="L63">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64">
-        <v>0.2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E64">
-        <v>0.17599999999999999</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F64">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G64">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H64">
-        <v>0.17199999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I64">
-        <v>0.23200000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J64">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K64">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L64">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65">
-        <v>0.184</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E65">
-        <v>0.17</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F65">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G65">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H65">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I65">
-        <v>0.23300000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J65">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K65">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L65">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66">
-        <v>0.188</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E66">
-        <v>0.17299999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F66">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G66">
-        <v>0.17799999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H66">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I66">
-        <v>0.23300000000000001</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J66">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K66">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L66">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67">
-        <v>0.191</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E67">
-        <v>0.18</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F67">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G67">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H67">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I67">
-        <v>0.248</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J67">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K67">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L67">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68">
-        <v>0.17599999999999999</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E68">
-        <v>0.185</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F68">
-        <v>0.16200000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G68">
-        <v>0.16200000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H68">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I68">
-        <v>0.245</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J68">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K68">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L68">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69">
-        <v>0.20399999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E69">
-        <v>0.17199999999999999</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F69">
-        <v>0.16400000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G69">
-        <v>0.16800000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H69">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I69">
-        <v>0.23799999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J69">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K69">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="L69">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70">
-        <v>0.182</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E70">
-        <v>0.16700000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F70">
-        <v>0.17699999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G70">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H70">
-        <v>0.16600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I70">
-        <v>0.23699999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J70">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K70">
-        <v>0.47</v>
-      </c>
-      <c r="L70">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71">
-        <v>0.184</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E71">
-        <v>0.18</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F71">
-        <v>0.17799999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G71">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I71">
-        <v>0.24199999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J71">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K71">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L71">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72">
-        <v>0.186</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E72">
-        <v>0.17499999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F72">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G72">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H72">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I72">
-        <v>0.23599999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J72">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K72">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L72">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73">
-        <v>0.185</v>
+        <v>0.03</v>
       </c>
       <c r="E73">
-        <v>0.182</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F73">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G73">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H73">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I73">
-        <v>0.24099999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J73">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K73">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="L73">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74">
-        <v>0.188</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E74">
-        <v>0.17199999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F74">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G74">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H74">
-        <v>0.17</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I74">
-        <v>0.24299999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J74">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K74">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L74">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75">
-        <v>0.20100000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E75">
-        <v>0.17100000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F75">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G75">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H75">
-        <v>0.16500000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I75">
-        <v>0.24399999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J75">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="K75">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="L75">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76">
-        <v>0.183</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E76">
-        <v>0.16800000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F76">
-        <v>0.17499999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G76">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H76">
-        <v>0.184</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I76">
-        <v>0.23599999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J76">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="K76">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L76">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77">
-        <v>0.189</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E77">
-        <v>0.16800000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F77">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G77">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H77">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I77">
-        <v>0.24399999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J77">
-        <v>0.159</v>
-      </c>
-      <c r="K77">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="L77">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78">
-        <v>0.193</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E78">
-        <v>0.17699999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F78">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G78">
-        <v>0.17599999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H78">
-        <v>0.16300000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I78">
-        <v>0.23100000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J78">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K78">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L78">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79">
-        <v>0.186</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E79">
-        <v>0.186</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F79">
-        <v>0.16900000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G79">
-        <v>0.17199999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H79">
-        <v>0.17699999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I79">
-        <v>0.252</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J79">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K79">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="L79">
-        <v>0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80">
-        <v>0.20100000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E80">
-        <v>0.19700000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F80">
-        <v>0.193</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G80">
-        <v>0.17299999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H80">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I80">
-        <v>0.252</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J80">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K80">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="L80">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81">
-        <v>0.183</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E81">
-        <v>0.18099999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F81">
-        <v>0.161</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G81">
-        <v>0.16300000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H81">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I81">
-        <v>0.24199999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J81">
-        <v>0.183</v>
-      </c>
-      <c r="K81">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L81">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82">
-        <v>0.191</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E82">
-        <v>0.17899999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F82">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G82">
-        <v>0.17299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H82">
-        <v>0.16</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I82">
-        <v>0.23400000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J82">
-        <v>0.192</v>
-      </c>
-      <c r="K82">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="L82">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83">
-        <v>0.184</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E83">
-        <v>0.17499999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F83">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G83">
-        <v>0.19</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H83">
-        <v>0.18</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I83">
-        <v>0.23599999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J83">
-        <v>0.161</v>
-      </c>
-      <c r="K83">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L83">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84">
-        <v>0.184</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E84">
-        <v>0.182</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F84">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G84">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H84">
-        <v>0.16</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I84">
-        <v>0.23699999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J84">
-        <v>0.17</v>
-      </c>
-      <c r="K84">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L84">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85">
-        <v>0.192</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E85">
-        <v>0.17499999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F85">
-        <v>0.17299999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G85">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H85">
-        <v>0.16800000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I85">
-        <v>0.24299999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="J85">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K85">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="L85">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86">
-        <v>0.192</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E86">
-        <v>0.17799999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F86">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G86">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H86">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I86">
-        <v>0.23400000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J86">
-        <v>0.182</v>
-      </c>
-      <c r="K86">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L86">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87">
-        <v>0.188</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E87">
-        <v>0.17399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F87">
-        <v>0.17</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G87">
-        <v>0.16700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H87">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I87">
-        <v>0.24299999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J87">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="K87">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L87">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88">
-        <v>0.185</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E88">
-        <v>0.16800000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F88">
-        <v>0.16700000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G88">
-        <v>0.17199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H88">
-        <v>0.16800000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I88">
-        <v>0.24299999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J88">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="K88">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L88">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89">
-        <v>0.193</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E89">
-        <v>0.17599999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F89">
-        <v>0.16700000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G89">
-        <v>0.16300000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H89">
-        <v>0.16900000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I89">
-        <v>0.23400000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J89">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K89">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L89">
-        <v>0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90">
-        <v>0.183</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E90">
-        <v>0.182</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F90">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G90">
-        <v>0.17399999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H90">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I90">
-        <v>0.24199999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J90">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K90">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L90">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91">
-        <v>0.19</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E91">
-        <v>0.17699999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F91">
-        <v>0.17599999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G91">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H91">
-        <v>0.18</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I91">
-        <v>0.248</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J91">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K91">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L91">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92">
-        <v>0.186</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E92">
-        <v>0.17599999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F92">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G92">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H92">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I92">
-        <v>0.23899999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J92">
-        <v>0.18</v>
-      </c>
-      <c r="K92">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L92">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.2">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93">
-        <v>0.184</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E93">
-        <v>0.188</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F93">
-        <v>0.17</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G93">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H93">
-        <v>0.16400000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I93">
-        <v>0.23300000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J93">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K93">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="L93">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94">
-        <v>0.19500000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E94">
-        <v>0.18</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F94">
-        <v>0.16</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G94">
-        <v>0.17599999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H94">
-        <v>0.17499999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I94">
-        <v>0.24199999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J94">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K94">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L94">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95">
-        <v>0.186</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E95">
-        <v>0.188</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F95">
-        <v>0.16900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G95">
-        <v>0.16600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H95">
-        <v>0.16400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I95">
-        <v>0.23100000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J95">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K95">
-        <v>0.45</v>
-      </c>
-      <c r="L95">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96">
-        <v>0.188</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E96">
-        <v>0.182</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F96">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G96">
-        <v>0.17</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H96">
-        <v>0.186</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I96">
-        <v>0.25</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J96">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K96">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="L96">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97">
-        <v>0.20300000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E97">
-        <v>0.183</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F97">
-        <v>0.16200000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G97">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H97">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I97">
-        <v>0.23400000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J97">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K97">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L97">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98">
-        <v>0.188</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E98">
-        <v>0.17199999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F98">
-        <v>0.16800000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G98">
-        <v>0.16500000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H98">
-        <v>0.17</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I98">
-        <v>0.23499999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J98">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K98">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L98">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99">
-        <v>0.193</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E99">
-        <v>0.182</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F99">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G99">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H99">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I99">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="J99">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K99">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L99">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100">
-        <v>0.20599999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E100">
-        <v>0.17899999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F100">
-        <v>0.17100000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G100">
-        <v>0.17499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H100">
-        <v>0.16800000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I100">
-        <v>0.23699999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="J100">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K100">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="L100">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101">
-        <v>0.183</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E101">
-        <v>0.20899999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F101">
-        <v>0.17</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G101">
-        <v>0.16900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H101">
-        <v>0.17100000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I101">
-        <v>0.23899999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J101">
-        <v>0.16</v>
-      </c>
-      <c r="K101">
-        <v>0.505</v>
-      </c>
-      <c r="L101">
-        <v>0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102">
-        <v>0.189</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E102">
-        <v>0.18099999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F102">
-        <v>0.16700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G102">
-        <v>0.16600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H102">
-        <v>0.17399999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I102">
-        <v>0.24399999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J102">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K102">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="L102">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103">
-        <v>0.184</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E103">
-        <v>0.17599999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F103">
-        <v>0.184</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G103">
-        <v>0.184</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H103">
-        <v>0.16300000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I103">
-        <v>0.23300000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J103">
-        <v>0.182</v>
-      </c>
-      <c r="K103">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L103">
-        <v>0.20100000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
